--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s3_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196.4057174326121</v>
+        <v>198.945717432612</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.46</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>29.10400083732547</v>
       </c>
     </row>
     <row r="9">
@@ -900,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.10400083732547</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>54.00999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.79499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.26999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>55.17499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>138.6800000000002</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>130.5650000000002</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>136.5250000000002</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>139.2700000000002</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>143.8900000000002</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>153.0100000000001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>173.0650000000001</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>162.3200000000001</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>160.4650000000001</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>161.1250000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>93.08000000000037</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>91.84000000000037</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>94.13000000000036</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>101.0950000000004</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>102.6250000000004</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>138.6800000000002</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>130.5650000000002</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>136.5250000000002</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>139.2700000000002</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>143.8900000000002</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>153.0100000000001</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>173.0650000000001</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>162.3200000000001</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>160.4650000000001</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.1250000000001</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
